--- a/cbrunner/Parameters/Table_BCFCS_DataSources.xlsx
+++ b/cbrunner/Parameters/Table_BCFCS_DataSources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD851CD-B150-40F6-A49C-17FD619E2BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47AAEA5-6AC5-4A76-8743-30DA9EF7A7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>TA_PROTECTED_LANDS_SV</t>
   </si>
@@ -248,9 +248,6 @@
     <t>LandCover</t>
   </si>
   <si>
-    <t>BC_MAJOR_WATERSHEDS</t>
-  </si>
-  <si>
     <t>NRC_POLITICAL_BOUNDARIES_1M_SP</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>NRC_POPULATED_PLACES_1M_SP</t>
   </si>
   <si>
-    <t>FWA_WATERSHED_GROUPS_POLY</t>
-  </si>
-  <si>
     <t>OATS_ALR_POLYS</t>
   </si>
   <si>
@@ -312,22 +306,35 @@
   </si>
   <si>
     <t>NRC_OTHER_LAND_COVER_250K_SP</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>FWA_NAMED_WATERSHEDS_POLY</t>
+  </si>
+  <si>
+    <t>Use this - far superior to FWA_WATERSHED_GROUPS or BC_MARJOR_WATERSHEDS</t>
+  </si>
+  <si>
+    <t>WHSE_WATER_MANAGEMENT</t>
+  </si>
+  <si>
+    <t>WRIS_DAMS_PUBLIC_SVW</t>
+  </si>
+  <si>
+    <t>WaterManagement</t>
+  </si>
+  <si>
+    <t>WLS_NON_TRIM_FLDAREA_LINES_SP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -371,12 +378,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,9 +401,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -435,7 +441,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -541,7 +547,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,7 +689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,669 +697,764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E269FF7-C4F2-4A6A-8BEB-E020381C4873}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
+      <c r="C62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="B44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4" t="s">
+      <c r="C63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4" t="s">
+      <c r="C64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="4" t="s">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="B66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="15">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Table_BCFCS_DataSources.xlsx
+++ b/cbrunner/Parameters/Table_BCFCS_DataSources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47AAEA5-6AC5-4A76-8743-30DA9EF7A7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E550A3FD-DE16-4C99-99ED-6CF7D5907D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
   <si>
     <t>TA_PROTECTED_LANDS_SV</t>
   </si>
@@ -308,13 +308,7 @@
     <t>NRC_OTHER_LAND_COVER_250K_SP</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>FWA_NAMED_WATERSHEDS_POLY</t>
-  </si>
-  <si>
-    <t>Use this - far superior to FWA_WATERSHED_GROUPS or BC_MARJOR_WATERSHEDS</t>
   </si>
   <si>
     <t>WHSE_WATER_MANAGEMENT</t>
@@ -699,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E269FF7-C4F2-4A6A-8BEB-E020381C4873}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -721,9 +715,7 @@
       <c r="C1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -1152,23 +1144,23 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1178,11 +1170,9 @@
         <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3"/>

--- a/cbrunner/Parameters/Table_BCFCS_DataSources.xlsx
+++ b/cbrunner/Parameters/Table_BCFCS_DataSources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E550A3FD-DE16-4C99-99ED-6CF7D5907D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1621F4C9-9F31-4D0A-91FE-0118482088D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
+    <workbookView xWindow="1704" yWindow="660" windowWidth="11904" windowHeight="13740" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>DRP_RAILWAYS_1M_SP</t>
   </si>
   <si>
-    <t>PEST_INFEST_HISTORIC_POLY</t>
-  </si>
-  <si>
     <t>FTEN_LICENCE_TO_CUT</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>WLS_NON_TRIM_FLDAREA_LINES_SP</t>
+  </si>
+  <si>
+    <t>PEST_INFESTATION_POLY</t>
   </si>
 </sst>
 </file>
@@ -693,15 +693,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E269FF7-C4F2-4A6A-8BEB-E020381C4873}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -713,13 +713,13 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -755,7 +755,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -765,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -777,7 +777,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
@@ -818,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -828,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -928,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -948,7 +948,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -1038,7 +1038,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -1048,7 +1048,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -1068,7 +1068,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -1078,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -1088,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="3"/>
     </row>
@@ -1098,7 +1098,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="3"/>
     </row>
@@ -1108,7 +1108,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="3"/>
     </row>
@@ -1118,7 +1118,7 @@
         <v>31</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="3"/>
     </row>
@@ -1128,39 +1128,39 @@
         <v>31</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -1170,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46" s="3"/>
     </row>
@@ -1180,7 +1180,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="3"/>
     </row>
@@ -1212,7 +1212,7 @@
         <v>25</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="3"/>
     </row>
@@ -1286,7 +1286,7 @@
         <v>25</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -1323,7 +1323,7 @@
     <row r="61" spans="1:4">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>52</v>
@@ -1356,7 +1356,7 @@
         <v>36</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="3"/>
     </row>
@@ -1366,7 +1366,7 @@
         <v>36</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="3"/>
     </row>
